--- a/Email.xlsx
+++ b/Email.xlsx
@@ -14,54 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>rounakmehta@salesforce.com</t>
-  </si>
-  <si>
-    <t>itamarafek@salesforce.com</t>
-  </si>
-  <si>
-    <t>christianposse@salesforce.com</t>
-  </si>
-  <si>
-    <t>victoryee@salesforce.com</t>
-  </si>
-  <si>
-    <t>hemalimajithia@salesforce.com</t>
-  </si>
-  <si>
-    <t>haozhou@salesforce.com</t>
-  </si>
-  <si>
-    <t>victoriazhang@salesforce.com</t>
-  </si>
-  <si>
-    <t>payamcherchian@salesforce.com</t>
-  </si>
-  <si>
-    <t>jayeshgovindarajan@salesforce.com</t>
-  </si>
-  <si>
-    <t>shankarvedaraman@salesforce.com</t>
-  </si>
-  <si>
-    <t>annagordon@salesforce.com</t>
-  </si>
-  <si>
-    <t>mariorodriguez@salesforce.com</t>
-  </si>
-  <si>
-    <t>williamforrester@salesforce.com</t>
-  </si>
-  <si>
-    <t>adamhuang@salesforce.com</t>
-  </si>
-  <si>
-    <t>saptarshighose@salesforce.com</t>
+    <t>anjan.goswami@adobe.com</t>
+  </si>
+  <si>
+    <t>eugene.chen@adobe.com</t>
+  </si>
+  <si>
+    <t>joe.hilton@adobe.com</t>
+  </si>
+  <si>
+    <t>binjie.lai@adobe.com</t>
+  </si>
+  <si>
+    <t>nopparat.leelavanich@adobe.com</t>
+  </si>
+  <si>
+    <t>yuting.chen@adobe.com</t>
+  </si>
+  <si>
+    <t>xiang.wu@adobe.com</t>
+  </si>
+  <si>
+    <t>ivo.manolov@adobe.com</t>
+  </si>
+  <si>
+    <t>sai.arava@adobe.com</t>
+  </si>
+  <si>
+    <t>rajat.jain@adobe.com</t>
+  </si>
+  <si>
+    <t>nikhita.koul@adobe.com</t>
+  </si>
+  <si>
+    <t>nibedita.samal@adobe.com</t>
+  </si>
+  <si>
+    <t>poonam.pawar@adobe.com</t>
+  </si>
+  <si>
+    <t>emily.hawks@adobe.com</t>
+  </si>
+  <si>
+    <t>kunal.seth@adobe.com</t>
+  </si>
+  <si>
+    <t>raj.ramalingam@adobe.com</t>
+  </si>
+  <si>
+    <t>qilong.yuan@adobe.com</t>
+  </si>
+  <si>
+    <t>christopher.challis@adobe.com</t>
   </si>
 </sst>
 </file>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,6 +514,21 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Email.xlsx
+++ b/Email.xlsx
@@ -14,63 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>anjan.goswami@adobe.com</t>
-  </si>
-  <si>
-    <t>eugene.chen@adobe.com</t>
-  </si>
-  <si>
-    <t>joe.hilton@adobe.com</t>
-  </si>
-  <si>
-    <t>binjie.lai@adobe.com</t>
-  </si>
-  <si>
-    <t>nopparat.leelavanich@adobe.com</t>
-  </si>
-  <si>
-    <t>yuting.chen@adobe.com</t>
-  </si>
-  <si>
-    <t>xiang.wu@adobe.com</t>
-  </si>
-  <si>
-    <t>ivo.manolov@adobe.com</t>
-  </si>
-  <si>
-    <t>sai.arava@adobe.com</t>
-  </si>
-  <si>
-    <t>rajat.jain@adobe.com</t>
-  </si>
-  <si>
-    <t>nikhita.koul@adobe.com</t>
-  </si>
-  <si>
-    <t>nibedita.samal@adobe.com</t>
-  </si>
-  <si>
-    <t>poonam.pawar@adobe.com</t>
-  </si>
-  <si>
-    <t>emily.hawks@adobe.com</t>
-  </si>
-  <si>
-    <t>kunal.seth@adobe.com</t>
-  </si>
-  <si>
-    <t>raj.ramalingam@adobe.com</t>
-  </si>
-  <si>
-    <t>qilong.yuan@adobe.com</t>
-  </si>
-  <si>
-    <t>christopher.challis@adobe.com</t>
+    <t>jasonk@amazon.com</t>
+  </si>
+  <si>
+    <t>sherrym@amazon.com</t>
+  </si>
+  <si>
+    <t>kirstenl@amazon.com</t>
+  </si>
+  <si>
+    <t>saurabhu@amazon.com</t>
+  </si>
+  <si>
+    <t>nevenal@amazon.com</t>
+  </si>
+  <si>
+    <t>sampathr@amazon.com</t>
+  </si>
+  <si>
+    <t>melissas@amazon.com</t>
+  </si>
+  <si>
+    <t>toms@amazon.com</t>
+  </si>
+  <si>
+    <t>kareema@amazon.com</t>
+  </si>
+  <si>
+    <t>christophers@amazon.com</t>
+  </si>
+  <si>
+    <t>dalianal@amazon.com</t>
+  </si>
+  <si>
+    <t>renatom@amazon.com</t>
+  </si>
+  <si>
+    <t>stephenb@amazon.com</t>
+  </si>
+  <si>
+    <t>vikasg@amazon.com</t>
+  </si>
+  <si>
+    <t>milaniec@amazon.com</t>
+  </si>
+  <si>
+    <t>chancek@amazon.com</t>
+  </si>
+  <si>
+    <t>janakm@amazon.com</t>
+  </si>
+  <si>
+    <t>emmys@amazon.com</t>
+  </si>
+  <si>
+    <t>monicaw@amazon.com</t>
+  </si>
+  <si>
+    <t>ganeshn@amazon.com</t>
+  </si>
+  <si>
+    <t>rajneeshk@amazon.com</t>
+  </si>
+  <si>
+    <t>bow@amazon.com</t>
+  </si>
+  <si>
+    <t>davef@amazon.com</t>
+  </si>
+  <si>
+    <t>augustan@amazon.com</t>
+  </si>
+  <si>
+    <t>weil@amazon.com</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,6 +550,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Email.xlsx
+++ b/Email.xlsx
@@ -14,84 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>jasonk@amazon.com</t>
-  </si>
-  <si>
-    <t>sherrym@amazon.com</t>
-  </si>
-  <si>
-    <t>kirstenl@amazon.com</t>
-  </si>
-  <si>
-    <t>saurabhu@amazon.com</t>
-  </si>
-  <si>
-    <t>nevenal@amazon.com</t>
-  </si>
-  <si>
-    <t>sampathr@amazon.com</t>
-  </si>
-  <si>
-    <t>melissas@amazon.com</t>
-  </si>
-  <si>
-    <t>toms@amazon.com</t>
-  </si>
-  <si>
-    <t>kareema@amazon.com</t>
-  </si>
-  <si>
-    <t>christophers@amazon.com</t>
-  </si>
-  <si>
-    <t>dalianal@amazon.com</t>
-  </si>
-  <si>
-    <t>renatom@amazon.com</t>
-  </si>
-  <si>
-    <t>stephenb@amazon.com</t>
-  </si>
-  <si>
-    <t>vikasg@amazon.com</t>
-  </si>
-  <si>
-    <t>milaniec@amazon.com</t>
-  </si>
-  <si>
-    <t>chancek@amazon.com</t>
-  </si>
-  <si>
-    <t>janakm@amazon.com</t>
-  </si>
-  <si>
-    <t>emmys@amazon.com</t>
-  </si>
-  <si>
-    <t>monicaw@amazon.com</t>
-  </si>
-  <si>
-    <t>ganeshn@amazon.com</t>
-  </si>
-  <si>
-    <t>rajneeshk@amazon.com</t>
-  </si>
-  <si>
-    <t>bow@amazon.com</t>
-  </si>
-  <si>
-    <t>davef@amazon.com</t>
-  </si>
-  <si>
-    <t>augustan@amazon.com</t>
-  </si>
-  <si>
-    <t>weil@amazon.com</t>
+    <t>yuqi.jiang@oracle.com</t>
+  </si>
+  <si>
+    <t>elad.ziklik@oracle.com</t>
+  </si>
+  <si>
+    <t>amit.k@oracle.com</t>
+  </si>
+  <si>
+    <t>kaushal.kurapati@oracle.com</t>
+  </si>
+  <si>
+    <t>ranjit.chacko@oracle.com</t>
+  </si>
+  <si>
+    <t>anupama.singhvi@oracle.com</t>
+  </si>
+  <si>
+    <t>shekhar.agrawal@oracle.com</t>
+  </si>
+  <si>
+    <t>john.bible@oracle.com</t>
+  </si>
+  <si>
+    <t>tirthankar.lahiri@oracle.com</t>
+  </si>
+  <si>
+    <t>ricky.berger@oracle.com</t>
+  </si>
+  <si>
+    <t>john.peach@oracle.com</t>
+  </si>
+  <si>
+    <t>venkata.duvvuri@oracle.com</t>
+  </si>
+  <si>
+    <t>jyothi.g@oracle.com</t>
+  </si>
+  <si>
+    <t>audrey.rusch@oracle.com</t>
+  </si>
+  <si>
+    <t>sanjay.mehta@oracle.com</t>
+  </si>
+  <si>
+    <t>paulina.goodman@oracle.com</t>
+  </si>
+  <si>
+    <t>bertalan.danko@oracle.com</t>
+  </si>
+  <si>
+    <t>steve.sanders@oracle.com</t>
+  </si>
+  <si>
+    <t>sunil.kunisetty@oracle.com</t>
+  </si>
+  <si>
+    <t>pallika.kanani@oracle.com</t>
+  </si>
+  <si>
+    <t>mark.hornick@oracle.com</t>
+  </si>
+  <si>
+    <t>andreas.lemos@oracle.com</t>
+  </si>
+  <si>
+    <t>muru.sinnassamy@oracle.com</t>
+  </si>
+  <si>
+    <t>setareh.borjian@oracle.com</t>
+  </si>
+  <si>
+    <t>justin.ho@oracle.com</t>
+  </si>
+  <si>
+    <t>tyler.janes@oracle.com</t>
+  </si>
+  <si>
+    <t>ikenna.ivenso@oracle.com</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,6 +591,16 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
